--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Equippp Social Impact Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Equippp Social Impact Technologies Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -934,7 +934,7 @@
         <v>19.47</v>
       </c>
       <c r="T4">
-        <v>1.040588235294118</v>
+        <v>1.04</v>
       </c>
       <c r="U4">
         <v>30.84</v>
@@ -1044,7 +1044,7 @@
         <v>10.11</v>
       </c>
       <c r="T5">
-        <v>1.040588235294118</v>
+        <v>1.04</v>
       </c>
       <c r="U5">
         <v>15.14</v>
@@ -1154,7 +1154,7 @@
         <v>-172.15</v>
       </c>
       <c r="T6">
-        <v>1.040588235294118</v>
+        <v>1.04</v>
       </c>
       <c r="U6">
         <v>8.84</v>
@@ -1169,16 +1169,16 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>4.846666666666667</v>
+        <v>4.85</v>
       </c>
       <c r="Z6">
-        <v>4.371666666666667</v>
+        <v>4.37</v>
       </c>
       <c r="AA6">
-        <v>28.48666666666667</v>
+        <v>28.49</v>
       </c>
       <c r="AB6">
-        <v>28.96166666666667</v>
+        <v>28.96</v>
       </c>
       <c r="AC6">
         <v>117.02</v>
@@ -1193,7 +1193,7 @@
         <v>9.19</v>
       </c>
       <c r="AG6">
-        <v>28.48333333333333</v>
+        <v>28.48</v>
       </c>
       <c r="AH6">
         <v>0.82</v>
@@ -1279,16 +1279,16 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>4.846666666666667</v>
+        <v>4.85</v>
       </c>
       <c r="Z7">
-        <v>4.371666666666667</v>
+        <v>4.37</v>
       </c>
       <c r="AA7">
-        <v>28.48666666666667</v>
+        <v>28.49</v>
       </c>
       <c r="AB7">
-        <v>28.96166666666667</v>
+        <v>28.96</v>
       </c>
       <c r="AC7">
         <v>72.84</v>
@@ -1303,7 +1303,7 @@
         <v>7.49</v>
       </c>
       <c r="AG7">
-        <v>28.48333333333333</v>
+        <v>28.48</v>
       </c>
       <c r="AH7">
         <v>1.27</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>4.846666666666667</v>
+        <v>4.85</v>
       </c>
       <c r="Z9">
-        <v>4.371666666666667</v>
+        <v>4.37</v>
       </c>
       <c r="AA9">
-        <v>28.48666666666667</v>
+        <v>28.49</v>
       </c>
       <c r="AB9">
-        <v>28.96166666666667</v>
+        <v>28.96</v>
       </c>
       <c r="AC9">
         <v>32.71</v>
@@ -1523,7 +1523,7 @@
         <v>0.09</v>
       </c>
       <c r="AG9">
-        <v>28.48333333333333</v>
+        <v>28.48</v>
       </c>
       <c r="AH9">
         <v>25.8</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>4.846666666666667</v>
+        <v>4.85</v>
       </c>
       <c r="Z10">
-        <v>4.371666666666667</v>
+        <v>4.37</v>
       </c>
       <c r="AA10">
-        <v>28.48666666666667</v>
+        <v>28.49</v>
       </c>
       <c r="AB10">
-        <v>28.96166666666667</v>
+        <v>28.96</v>
       </c>
       <c r="AC10">
         <v>26.53</v>
@@ -1633,7 +1633,7 @@
         <v>0.06</v>
       </c>
       <c r="AG10">
-        <v>28.48333333333333</v>
+        <v>28.48</v>
       </c>
       <c r="AH10">
         <v>14.53</v>
@@ -1695,7 +1695,7 @@
         <v>-1386.49</v>
       </c>
       <c r="Q11">
-        <v>-287.2757894736843</v>
+        <v>-287.28</v>
       </c>
       <c r="R11">
         <v>84.83</v>
@@ -1719,16 +1719,16 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>4.846666666666667</v>
+        <v>4.85</v>
       </c>
       <c r="Z11">
-        <v>4.371666666666667</v>
+        <v>4.37</v>
       </c>
       <c r="AA11">
-        <v>28.48666666666667</v>
+        <v>28.49</v>
       </c>
       <c r="AB11">
-        <v>28.96166666666667</v>
+        <v>28.96</v>
       </c>
       <c r="AC11">
         <v>25.55</v>
@@ -1743,7 +1743,7 @@
         <v>6.33</v>
       </c>
       <c r="AG11">
-        <v>28.48333333333333</v>
+        <v>28.48</v>
       </c>
       <c r="AH11">
         <v>-0.48</v>
@@ -2438,7 +2438,7 @@
         <v>0.75</v>
       </c>
       <c r="H18">
-        <v>14.85277777777778</v>
+        <v>14.85</v>
       </c>
       <c r="I18">
         <v>-3.48</v>
@@ -2453,16 +2453,16 @@
         <v>40.92</v>
       </c>
       <c r="M18">
-        <v>-230.1827777777778</v>
+        <v>-230.18</v>
       </c>
       <c r="N18">
         <v>-235.63</v>
       </c>
       <c r="O18">
-        <v>-296.3894444444445</v>
+        <v>-296.39</v>
       </c>
       <c r="P18">
-        <v>-317.4983333333333</v>
+        <v>-317.5</v>
       </c>
       <c r="Q18">
         <v>-4277.92</v>
@@ -2477,7 +2477,7 @@
         <v>-7.38</v>
       </c>
       <c r="U18">
-        <v>125.685</v>
+        <v>125.68</v>
       </c>
       <c r="V18">
         <v>5.93</v>
@@ -2489,37 +2489,37 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>4.846666666666667</v>
+        <v>4.85</v>
       </c>
       <c r="Z18">
-        <v>4.371666666666667</v>
+        <v>4.37</v>
       </c>
       <c r="AA18">
-        <v>28.48666666666667</v>
+        <v>28.49</v>
       </c>
       <c r="AB18">
-        <v>28.96166666666667</v>
+        <v>28.96</v>
       </c>
       <c r="AC18">
         <v>2.26</v>
       </c>
       <c r="AD18">
-        <v>34.50222222222222</v>
+        <v>34.5</v>
       </c>
       <c r="AE18">
         <v>-2.1</v>
       </c>
       <c r="AF18">
-        <v>26.92888888888889</v>
+        <v>26.93</v>
       </c>
       <c r="AG18">
-        <v>28.48333333333333</v>
+        <v>28.48</v>
       </c>
       <c r="AH18">
         <v>-0.38</v>
       </c>
       <c r="AI18">
-        <v>26.93222222222222</v>
+        <v>26.93</v>
       </c>
       <c r="AJ18">
         <v>113.67</v>
@@ -2548,7 +2548,7 @@
         <v>0.75</v>
       </c>
       <c r="H19">
-        <v>14.85277777777778</v>
+        <v>14.85</v>
       </c>
       <c r="I19">
         <v>-0.06</v>
@@ -2563,16 +2563,16 @@
         <v>-0.29</v>
       </c>
       <c r="M19">
-        <v>-230.1827777777778</v>
+        <v>-230.18</v>
       </c>
       <c r="N19">
         <v>-235.63</v>
       </c>
       <c r="O19">
-        <v>-296.3894444444445</v>
+        <v>-296.39</v>
       </c>
       <c r="P19">
-        <v>-317.4983333333333</v>
+        <v>-317.5</v>
       </c>
       <c r="Q19">
         <v>-43.64</v>
@@ -2587,7 +2587,7 @@
         <v>0.08</v>
       </c>
       <c r="U19">
-        <v>125.685</v>
+        <v>125.68</v>
       </c>
       <c r="V19">
         <v>0.03</v>
@@ -2599,40 +2599,40 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>4.846666666666667</v>
+        <v>4.85</v>
       </c>
       <c r="Z19">
-        <v>4.371666666666667</v>
+        <v>4.37</v>
       </c>
       <c r="AA19">
-        <v>28.48666666666667</v>
+        <v>28.49</v>
       </c>
       <c r="AB19">
-        <v>28.96166666666667</v>
+        <v>28.96</v>
       </c>
       <c r="AC19">
         <v>664.4299999999999</v>
       </c>
       <c r="AD19">
-        <v>34.50222222222222</v>
+        <v>34.5</v>
       </c>
       <c r="AE19">
         <v>-1112.53</v>
       </c>
       <c r="AF19">
-        <v>26.92888888888889</v>
+        <v>26.93</v>
       </c>
       <c r="AG19">
-        <v>28.48333333333333</v>
+        <v>28.48</v>
       </c>
       <c r="AH19">
         <v>98.29000000000001</v>
       </c>
       <c r="AI19">
-        <v>26.93222222222222</v>
+        <v>26.93</v>
       </c>
       <c r="AJ19">
-        <v>5.869444444444444</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2774,7 +2774,7 @@
         <v>0.02</v>
       </c>
       <c r="J21">
-        <v>-1.791578947368421</v>
+        <v>-1.79</v>
       </c>
       <c r="K21">
         <v>-0.01</v>
@@ -2819,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>4.846666666666667</v>
+        <v>4.85</v>
       </c>
       <c r="Z21">
-        <v>4.371666666666667</v>
+        <v>4.37</v>
       </c>
       <c r="AA21">
-        <v>28.48666666666667</v>
+        <v>28.49</v>
       </c>
       <c r="AB21">
-        <v>28.96166666666667</v>
+        <v>28.96</v>
       </c>
       <c r="AC21">
         <v>310.41</v>
@@ -2843,7 +2843,7 @@
         <v>165.41</v>
       </c>
       <c r="AG21">
-        <v>28.48333333333333</v>
+        <v>28.48</v>
       </c>
       <c r="AH21">
         <v>44.83</v>
@@ -2852,7 +2852,7 @@
         <v>165.41</v>
       </c>
       <c r="AJ21">
-        <v>5.869444444444444</v>
+        <v>5.87</v>
       </c>
     </row>
   </sheetData>
